--- a/demo/excel_demo.xlsx
+++ b/demo/excel_demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>c4</t>
   </si>
@@ -44,51 +44,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>d2</t>
+  </si>
+  <si>
+    <t>d3</t>
+  </si>
+  <si>
+    <t>d4</t>
+  </si>
+  <si>
+    <t>d5</t>
+  </si>
+  <si>
+    <t>d6</t>
+  </si>
+  <si>
+    <t>d7</t>
+  </si>
+  <si>
+    <t>e2</t>
+  </si>
+  <si>
+    <t>e3</t>
+  </si>
+  <si>
+    <t>e4</t>
+  </si>
+  <si>
+    <t>e5</t>
+  </si>
+  <si>
+    <t>e6</t>
+  </si>
+  <si>
+    <t>e7</t>
+  </si>
+  <si>
     <t>e1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>d3</t>
-  </si>
-  <si>
-    <t>d4</t>
-  </si>
-  <si>
-    <t>d5</t>
-  </si>
-  <si>
-    <t>d6</t>
-  </si>
-  <si>
-    <t>d7</t>
-  </si>
-  <si>
-    <t>e2</t>
-  </si>
-  <si>
-    <t>e3</t>
-  </si>
-  <si>
-    <t>e4</t>
-  </si>
-  <si>
-    <t>e5</t>
-  </si>
-  <si>
-    <t>e6</t>
-  </si>
-  <si>
-    <t>e7</t>
+    <t>L1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +116,13 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -123,8 +146,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -419,874 +443,891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>100</v>
       </c>
     </row>
@@ -1301,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
